--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="494">
   <si>
     <t xml:space="preserve">ATIVO</t>
   </si>
@@ -305,16 +305,1662 @@
   </si>
   <si>
     <t xml:space="preserve">raquelfranca.franca@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILMAR FREITAS CARDOSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/06/1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTORISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.677.474-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270.898.318-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)96365-2840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSÉ ALBINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARILZA FERREIRA DE CASTRO SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/06/1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO LAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.318.612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.705.988-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA NHÁ JORDA, Nº112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLARIA  - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)93768-5639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/07/1995 - IG. BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL STEIN DE TOLEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOEL PIMENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/03/1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.727.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.760.068-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA MARIA WARD, Nº 1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06859-490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAC VISTA ALEGRE - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)97272-1371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/11/2002 - IG BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIZA MARQUES SILVA GUIMARÃES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/03/1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.049.767.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296.358.878-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA CHICAGO, Nº 192 - CASA 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06852-650 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ PARAÍSO - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(35)99749-4008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elizamarques2010@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996 - IGREJA BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS V. SPNELY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRIAM MARQUES SILVA GUIMARÃES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEC. ENFERMAGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.095.059-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296.386.598-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA CHICAGO, Nº 213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)99546-2828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/07/1981   - ASS DE DEUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGINA CELANO OIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/08/1955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.241.054-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA TEREZINHA DOMINGUES RODRIGUES, Nº120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06850-520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRO - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)4165-4249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/11/2009 - IG BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVID GURIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIAGO FRANÇA GURDIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUDANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.276.216-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464.458.908-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA CELSO CAPELOSSI, Nº 51 CASA 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ PARAISO - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)97855-5060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiagofran2009@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOÃO GONÇALVES DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/06/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.731.773-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA ANTONIO CAVALVANTE BRAGA, Nº188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06850-135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ. PARAISO - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)99806-2991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edu18_j@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igreja Assembléia de Deus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/02/1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.177.214-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314.139.548-98</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA CHICAGO, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2206</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06852-650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARQUE PARAISO - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)98059-9632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danny.contato@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/06/2012 - Igreja Batista Palavra Viva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Gurdiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOEMI MENDES PIMENTA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/11/1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.098.442-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.952.318-73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA MARIA WARD, Nº 1117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHACARA VISTA ALEGRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)96378-0596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELADIO REIS BARRIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/05/1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.477.058-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430.493.708-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA JOÃO ROBALO, Nº 761 - CASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05881-000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JD. SÃO BENTO NOVO  - SÃO PAULO - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)99827-7618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGREJA BATISTA BIBLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NILSON OSMAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA DAS DORES CARVALHO BARRIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/08/1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSISTENTE SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.020.383-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012.935.988-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)97157-1674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dora.dcarvalho@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/1978 - IGREJA BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARTMURT GLAZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNILEIRO SENIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.607.327-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.235.888-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA RIO GRANDE DO NORTE, Nº 498  - CASA 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)96204-8927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2012 - IGREJA BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR. DAVID GURDIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE DELFINO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/08/1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOSENTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.099.537-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">699.349.598-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)94549-9353 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO ROBERTO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13429961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">025.644.235-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA TAQUARAL, Nº 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06853-400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JARDIM ITAPECERICA- ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)95117-7877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L232 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIOVANNA FRANÇA GURDIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/03/2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.276.214-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464.458.348-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)96031-4652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I450 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENATA PIMENTA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.820.989-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496.606.568-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)91921-2185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P655 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUZA PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/04/1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solteira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMESTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.081.383-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.672.478-03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA ALCINO ANTONIO MORAES, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">414 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06859-030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRANTE DA LAGOA - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 99718-8716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abril de 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr. João Matias - Comunidade Cristã  Paz e Vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C246 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO JORGE FERREIRA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/06/1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.613.810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278.762.888-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHACARA VISTA ALEGRE - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 97166-1522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr. Dadiv Gurdiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A145 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELISÂNGELA REIS DE MATOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/02/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREINADORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.463.293-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">078.643.525-96</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA DONA ANILA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">428 - CASA 06</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06859-000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLARIA - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 98845-0801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ellysmattosreis@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/12/2016 - IGREJA RENASCER EM CRISTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIVANEA APARECIDA SILVA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/11/1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.840.405-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">025.644.255-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 94807-1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIANA LEME DE OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX. DE COZINHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.234.548-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379.345.248-46</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA TEN. JOÃO DAMASCENO PEREIRA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">511 - CASA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06871-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JD. MARILU - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 96461-2160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juliana55lima@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B260 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDRE GOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/10/1910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSIST SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.428.819-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612.056.489-68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA PARAISO, Nº 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04963-290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAC DA ENSEADA - SÃO PAULO / SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)97422-8756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpgomes2003@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/05/2009 - IGREJA BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URIEL FRANCISCO DA SILVA - OPBB 1487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTA PEREIRA DOS SANTOS GOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.526.245-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.945.938-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)97324-6008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLISVAN DE SOUZA CARNEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caminhoneiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.542.055-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">745.302.675-04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rua Suzuca, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">507</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06872-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pq Delfin Verde - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)97384-6868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARISSA GABRIELA PIMENTA RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/06/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.498.760-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486.335.588-23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rua Suzuca,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 507</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(11)94448-4452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A256 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIANE BATISTA CAMARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/01/1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.515.324-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342.833.898-70</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA MARIA WARD,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1693</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 99433-6708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabiane.ccamargo@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/07/2005 - IG DE DEUS ASS DOS ANCIÕES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSÉ FRUTUOSO DE CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILHERME LIMA FONTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/09/2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUDANTE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.157.619-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500.155.018-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRADA SHINOHARA  Nº 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06888-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESSACA   CIDADE: ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 93735-6065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guilherme030903@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/01/2020  DENOMINAÇÃO: ASSEMBLEIA DE DEUS SEM FRONTEIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAZIELE NASCIMENTO DA SILVA LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/04/1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTOQUISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.102.842-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352.179.838-09</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA MARIA WARD, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1681</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CHÁC VISTA ALEGRE - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 97269-5736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10/2023 - IBPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr. David Gurdiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVERALDO PACHECO SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/10/1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDREIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.971.783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356.178.980-08</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA TEN. JOÃO DAMASCENO PEREIRA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">511- CASA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 95482-2061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everaldo.pacheco09@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATHEUS DUARTE RODRIGUES DAS GRACAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/09/1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERENTE DE VENDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.163.637-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212.743.438-28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA HOLANDA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1278</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06852-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARQUE PARAPISO - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 98103-1199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matheusduarte@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/1990 - IGREJA BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIFFORD LEE NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANDELICI CARVALHO DE LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/02/1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUIDADORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.188.078-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365.195.558-35</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA ALCINO ANTÔNIO DE MORAES, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">107 – CASA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  OLARIA - ITAPECERICA DA SERRA - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 96543-1845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ano 2004  - PAZ &amp; VIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR. JUANRIBE PAGLIARIN / PR EMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARLI CARVALHO DE LIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/11/1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMÉSTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.908.670-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">053.926.215-38</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA ALCINO ANTÔNIO DE MORAES, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">98 - CASA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 95419-6242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marlylyma3020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/09/2015 - IGREJA ASSEMBEIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVO DE LIMA ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTÓGRAFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.243.303-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">681.964.158-34</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA CHICAGO,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">213</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 93409-1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivofotografo@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGO PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRE-CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO HENRIQUE L MASCARENHAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/02/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.921.709-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574.643.448-14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA ALCINO ANTÔNIO DE MORAES, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">107 - CASA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 99747-4428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con208tato@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO MARQUES S. GUIMARÃES GONÇALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/01/2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.688.307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499.195.178-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA CHICAGO, Nº 192 – CASA 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(35) 9767-0505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gustavomarquessilvaguimaraesgo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MURILO MARQUES S. GUIMARÃES GONÇALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/04/2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.084.715-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499.195.678-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(35) 99749-4008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIVELTON DE OLIVEIRA LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.737.221-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357.376.348-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 97288-3243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVANA PIRES DA SILVA DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/04/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSO HUMANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.685.562-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259.834.008-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA JOÃO BATISTA DE MORAES, Nº 13                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06851-040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JARDIM PARAISO - ITAP DA SERRA/SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 99212-0323 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sil_rh@yahoo.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001 / Comunidade Cristã Paz e Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR. JOÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODNEI PEREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/07/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.114.070-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276.171.448-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 99450-6144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rodnei@2rrsolucoes.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997 / Comunidade Cristã Paz e Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAINÁ PEREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.045.396-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507.366.198-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 91002-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/03/2023 - Comunidade Cristã Paz e Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO ASSUNÇÃO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/07/1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANOBRISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.846.042-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331.355.028-21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RUA ALCINO ANTÔNIO DE MORAES ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 98 – CASA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 967886250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA DE MATOS FIGUEIREDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTÔNOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.926.790-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423.144.878-77</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EST JOÃO RODRIGUES DE MORAES,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nº</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">279 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06860-400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAGOA / ITAPECERICA DA SERRA/SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11) 95076-1725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanessa_kaylan@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/1986 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -343,6 +1989,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,12 +2045,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,29 +2083,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="38.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="47.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="44.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="34.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="58.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="55.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.71"/>
   </cols>
   <sheetData>
@@ -881,14 +2553,2274 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
